--- a/Santrauka/CSS.xlsx
+++ b/Santrauka/CSS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28695" windowHeight="12540" tabRatio="550" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="20736" windowHeight="11760" tabRatio="550" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Flexbox" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,15 @@
     <sheet name="text" sheetId="6" r:id="rId5"/>
     <sheet name="grid" sheetId="8" r:id="rId6"/>
     <sheet name="box" sheetId="9" r:id="rId7"/>
+    <sheet name="animation" sheetId="10" r:id="rId8"/>
+    <sheet name="variable" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="188">
   <si>
     <t>Parent</t>
   </si>
@@ -181,9 +183,6 @@
     <t>dispaly:grid</t>
   </si>
   <si>
-    <t>grid-tmplate-colum</t>
-  </si>
-  <si>
     <t>1fr</t>
   </si>
   <si>
@@ -1508,20 +1507,385 @@
     <t>lygiavimas horizontaliai</t>
   </si>
   <si>
-    <t>all: unser</t>
-  </si>
-  <si>
     <t>panaikina visus stilius</t>
   </si>
   <si>
     <t>vaizduojama vienoje eilutėje (UŽDUODAMA KIEKVIENAM ELEMENTUI)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="186"/>
+      </rPr>
+      <t>position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="186"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="186"/>
+      </rPr>
+      <t>relative</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="186"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="186"/>
+      </rPr>
+      <t>animation-name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="186"/>
+      </rPr>
+      <t>: slide-right;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="186"/>
+      </rPr>
+      <t>animation-duration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="186"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="186"/>
+      </rPr>
+      <t>2s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="186"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="186"/>
+      </rPr>
+      <t>animation-fill-mode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="186"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="186"/>
+      </rPr>
+      <t>forwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="186"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>objektą padarom relative, kad jis galėtų judėti</t>
+  </si>
+  <si>
+    <t>animacijos funkcijos pavadinimas</t>
+  </si>
+  <si>
+    <t>animacijos trukmė</t>
+  </si>
+  <si>
+    <t>po animacijos objektas lieka neslepiamas</t>
+  </si>
+  <si>
+    <r>
+      <t>animation-iteration-count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="186"/>
+      </rPr>
+      <t>: 3;</t>
+    </r>
+  </si>
+  <si>
+    <t>2s;</t>
+  </si>
+  <si>
+    <t>forard;</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>animacijos ciklų skaičius</t>
+  </si>
+  <si>
+    <t>infinite</t>
+  </si>
+  <si>
+    <t>animacijoa kartojasi nuolatos</t>
+  </si>
+  <si>
+    <r>
+      <t>animation-timing-function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="186"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <t>animacijos intensyvumas pagal pateiktą paskaitoje grafiką</t>
+  </si>
+  <si>
+    <r>
+      <t>animation-delay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="186"/>
+      </rPr>
+      <t>: 2s;</t>
+    </r>
+  </si>
+  <si>
+    <t>Pauzė prieš animacijos startą</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>ANIMACIJOS FUNKCIJA</t>
+  </si>
+  <si>
+    <t>funkcijos pradžia</t>
+  </si>
+  <si>
+    <t>0% {</t>
+  </si>
+  <si>
+    <t>CSS komandos</t>
+  </si>
+  <si>
+    <t>pradinė animacijos stadija</t>
+  </si>
+  <si>
+    <t>n%{</t>
+  </si>
+  <si>
+    <t>tarpinė(s) animacijos stadija(os)</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>100%{</t>
+  </si>
+  <si>
+    <t>Galutinė animacijos stadija</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> @keyframe "funkcijos pavadinimas"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>opacity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="186"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>visiškai skaidrus elementas</t>
+  </si>
+  <si>
+    <t>visiškai matomas elementas</t>
+  </si>
+  <si>
+    <t>pastovus greitis</t>
+  </si>
+  <si>
+    <t>easy-out</t>
+  </si>
+  <si>
+    <t>sulėtėja pabaigoje</t>
+  </si>
+  <si>
+    <t>greitėja nuo pradžių</t>
+  </si>
+  <si>
+    <t>easy-in</t>
+  </si>
+  <si>
+    <t>easy-in-out</t>
+  </si>
+  <si>
+    <t>greitėja nuo pradžių, vėliau vėl sulėtėja</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>grid-template-colum</t>
+  </si>
+  <si>
+    <t>  --main-color: rgb(43, 43, 43);</t>
+  </si>
+  <si>
+    <t>header h2 {</t>
+  </si>
+  <si>
+    <t>  font-size: 2rem;</t>
+  </si>
+  <si>
+    <t>  font-weight: 400;</t>
+  </si>
+  <si>
+    <t>  color: var(--main-color);</t>
+  </si>
+  <si>
+    <t>min-width</t>
+  </si>
+  <si>
+    <t>minimalus plotis</t>
+  </si>
+  <si>
+    <t>  align-self: flex-start;</t>
+  </si>
+  <si>
+    <t>pločio korekcija po flex'o</t>
+  </si>
+  <si>
+    <t>all: unset</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1594,6 +1958,42 @@
       <family val="3"/>
       <charset val="186"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="186"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD7BA7D"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="186"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="186"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="186"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1630,7 +2030,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1662,6 +2062,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2325,13 +2729,13 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="37.5703125" customWidth="1"/>
+    <col min="1" max="2" width="31.109375" customWidth="1"/>
+    <col min="3" max="3" width="41.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.44140625" customWidth="1"/>
+    <col min="7" max="7" width="25.5546875" customWidth="1"/>
+    <col min="8" max="8" width="37.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2454,7 +2858,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="30">
+    <row r="10" spans="1:8" ht="28.8">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
         <v>10</v>
@@ -2468,7 +2872,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="30">
+    <row r="11" spans="1:8" ht="28.8">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>12</v>
@@ -2612,7 +3016,7 @@
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2632,11 +3036,11 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2656,11 +3060,11 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2857,11 +3261,11 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
@@ -2928,10 +3332,10 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -2958,38 +3362,38 @@
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
     <col min="2" max="2" width="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3002,23 +3406,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="66.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+    <col min="1" max="1" width="66.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1"/>
+    <col min="3" max="3" width="42.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3026,7 +3430,7 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
@@ -3034,140 +3438,140 @@
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
         <v>118</v>
-      </c>
-      <c r="C5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="15"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="12"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" s="12"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" s="12"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" s="12"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="12"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" s="12"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" s="12"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3179,17 +3583,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="37.5703125" customWidth="1"/>
+    <col min="1" max="2" width="31.109375" customWidth="1"/>
+    <col min="3" max="3" width="41.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.44140625" customWidth="1"/>
+    <col min="7" max="7" width="25.5546875" customWidth="1"/>
+    <col min="8" max="8" width="37.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3241,15 +3645,15 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="30">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -3269,13 +3673,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -3295,13 +3699,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -3331,11 +3735,11 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -3355,11 +3759,11 @@
     </row>
     <row r="14" spans="1:8" ht="31.5" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -3654,134 +4058,134 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:C31"/>
+  <dimension ref="A3:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="46.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
         <v>75</v>
-      </c>
-      <c r="B3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
         <v>101</v>
-      </c>
-      <c r="C15" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s">
         <v>103</v>
-      </c>
-      <c r="C18" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" t="s">
         <v>106</v>
-      </c>
-      <c r="C22" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="33.75" customHeight="1"/>
     <row r="25" spans="1:3" ht="18.75" customHeight="1">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" t="s">
         <v>111</v>
-      </c>
-      <c r="C25" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75" customHeight="1"/>
     <row r="27" spans="1:3">
       <c r="B27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="B29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" t="s">
         <v>114</v>
-      </c>
-      <c r="C29" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3789,11 +4193,305 @@
         <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="55.109375" customWidth="1"/>
+    <col min="5" max="5" width="47.109375" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="17"/>
+      <c r="E4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="E12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="E16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="E19" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="C20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A6:A20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Santrauka/CSS.xlsx
+++ b/Santrauka/CSS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="20736" windowHeight="11760" tabRatio="550" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="50" windowWidth="19110" windowHeight="7200" tabRatio="550" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Flexbox" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="box" sheetId="9" r:id="rId7"/>
     <sheet name="animation" sheetId="10" r:id="rId8"/>
     <sheet name="variable" sheetId="11" r:id="rId9"/>
+    <sheet name="img" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="202">
   <si>
     <t>Parent</t>
   </si>
@@ -1879,6 +1880,49 @@
   </si>
   <si>
     <t>all: unset</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>fixet</t>
+  </si>
+  <si>
+    <t>užfiksuojamas konkrečioje tinklalapio vietoje</t>
+  </si>
+  <si>
+    <t>relkiative</t>
+  </si>
+  <si>
+    <t>gali plaukioti tėvo boxe, bet savo pozicijos neužleidžia</t>
+  </si>
+  <si>
+    <t>tėvas irgi turi būti RELIATIVE</t>
+  </si>
+  <si>
+    <t>absoliute</t>
+  </si>
+  <si>
+    <t>kaip reliative, tik neprisiriša prie konkrečios vietos</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>box numeris sąraše</t>
+  </si>
+  <si>
+    <t>pakoreguoja foną: reikia įkelti paveikslėlio URL, korekcija skaičiukais 0.3</t>
+  </si>
+  <si>
+    <t>1vh</t>
+  </si>
+  <si>
+    <t>1 % matomo lango</t>
+  </si>
+  <si>
+    <t>background: linear-gradient(rgba(0, 0, 0, 0.3), rgba(0, 0, 0, 0.3)),   
+url("./assets/text-wrapper-background.jpg") center/cover no-repeat;</t>
   </si>
 </sst>
 </file>
@@ -2030,7 +2074,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2066,6 +2110,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2438,6 +2483,423 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8423275" y="4203700"/>
+          <a:ext cx="171450" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8375650" y="5499100"/>
+          <a:ext cx="171450" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>533401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8251825" y="4689475"/>
+          <a:ext cx="600075" cy="206376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8232775" y="5010150"/>
+          <a:ext cx="600075" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2809875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Connector 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7273925" y="5114925"/>
+          <a:ext cx="2368550" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2828925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Connector 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7292975" y="5324475"/>
+          <a:ext cx="2368550" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8423275" y="4203700"/>
+          <a:ext cx="171450" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8394700" y="5880100"/>
+          <a:ext cx="171450" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2729,13 +3191,13 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="31.109375" customWidth="1"/>
-    <col min="3" max="3" width="41.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.44140625" customWidth="1"/>
-    <col min="7" max="7" width="25.5546875" customWidth="1"/>
-    <col min="8" max="8" width="37.5546875" customWidth="1"/>
+    <col min="1" max="2" width="31.1796875" customWidth="1"/>
+    <col min="3" max="3" width="41.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.453125" customWidth="1"/>
+    <col min="7" max="7" width="25.54296875" customWidth="1"/>
+    <col min="8" max="8" width="37.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2858,7 +3320,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="28.8">
+    <row r="10" spans="1:8" ht="29">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
         <v>10</v>
@@ -2872,7 +3334,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="28.8">
+    <row r="11" spans="1:8" ht="29">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>12</v>
@@ -3250,6 +3712,85 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="60.81640625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="39.36328125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" ht="47.5" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:5" customFormat="1" ht="33.75" customHeight="1"/>
+    <row r="10" spans="1:5" customFormat="1"/>
+    <row r="11" spans="1:5" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="13" spans="1:5" customFormat="1">
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" customFormat="1"/>
+    <row r="15" spans="1:5" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" customFormat="1"/>
+    <row r="17" spans="2:3" customFormat="1">
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3261,11 +3802,11 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" customWidth="1"/>
-    <col min="3" max="3" width="48.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="39.7265625" customWidth="1"/>
+    <col min="3" max="3" width="48.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
@@ -3332,10 +3873,10 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -3356,15 +3897,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="1" max="1" width="29.1796875" customWidth="1"/>
     <col min="2" max="2" width="52" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3394,6 +3935,14 @@
     <row r="5" spans="1:3">
       <c r="A5" s="12" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3406,15 +3955,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="66.109375" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1"/>
-    <col min="3" max="3" width="42.88671875" customWidth="1"/>
+    <col min="1" max="1" width="66.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.81640625" customWidth="1"/>
+    <col min="3" max="3" width="42.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
@@ -3583,17 +4132,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="31.109375" customWidth="1"/>
-    <col min="3" max="3" width="41.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.44140625" customWidth="1"/>
-    <col min="7" max="7" width="25.5546875" customWidth="1"/>
-    <col min="8" max="8" width="37.5546875" customWidth="1"/>
+    <col min="1" max="2" width="31.1796875" customWidth="1"/>
+    <col min="3" max="3" width="41.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.453125" customWidth="1"/>
+    <col min="7" max="7" width="25.54296875" customWidth="1"/>
+    <col min="8" max="8" width="37.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4058,17 +4607,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:C39"/>
+  <dimension ref="A3:C50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="46.109375" customWidth="1"/>
+    <col min="1" max="1" width="45.7265625" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="3" max="3" width="53.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -4210,6 +4759,46 @@
       </c>
       <c r="C39" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" t="s">
+        <v>189</v>
+      </c>
+      <c r="C43" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" t="s">
+        <v>191</v>
+      </c>
+      <c r="C45" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="C46" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4226,12 +4815,12 @@
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="55.109375" customWidth="1"/>
-    <col min="5" max="5" width="47.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" customWidth="1"/>
+    <col min="3" max="3" width="55.1796875" customWidth="1"/>
+    <col min="5" max="5" width="47.1796875" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4451,9 +5040,9 @@
       <selection activeCell="A6" sqref="A6:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="32.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:1">

--- a/Santrauka/CSS.xlsx
+++ b/Santrauka/CSS.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="50" windowWidth="19110" windowHeight="7200" tabRatio="550" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="19110" windowHeight="7200" tabRatio="550" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Flexbox" sheetId="1" r:id="rId1"/>
-    <sheet name="Button" sheetId="2" r:id="rId2"/>
-    <sheet name="list" sheetId="3" r:id="rId3"/>
-    <sheet name="bendros" sheetId="5" r:id="rId4"/>
-    <sheet name="text" sheetId="6" r:id="rId5"/>
-    <sheet name="grid" sheetId="8" r:id="rId6"/>
+    <sheet name="grid" sheetId="8" r:id="rId2"/>
+    <sheet name="Button" sheetId="2" r:id="rId3"/>
+    <sheet name="list" sheetId="3" r:id="rId4"/>
+    <sheet name="bendros" sheetId="5" r:id="rId5"/>
+    <sheet name="text" sheetId="6" r:id="rId6"/>
     <sheet name="box" sheetId="9" r:id="rId7"/>
     <sheet name="animation" sheetId="10" r:id="rId8"/>
     <sheet name="variable" sheetId="11" r:id="rId9"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="205">
   <si>
     <t>Parent</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>flex-start</t>
-  </si>
-  <si>
-    <t>algiment-item</t>
   </si>
   <si>
     <t>Viršuje</t>
@@ -1923,6 +1920,18 @@
   <si>
     <t>background: linear-gradient(rgba(0, 0, 0, 0.3), rgba(0, 0, 0, 0.3)),   
 url("./assets/text-wrapper-background.jpg") center/cover no-repeat;</t>
+  </si>
+  <si>
+    <t>align-items</t>
+  </si>
+  <si>
+    <t>cursor</t>
+  </si>
+  <si>
+    <t>pointer</t>
+  </si>
+  <si>
+    <t>pavirsta ranka</t>
   </si>
 </sst>
 </file>
@@ -3188,16 +3197,16 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="31.1796875" customWidth="1"/>
-    <col min="3" max="3" width="41.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.453125" customWidth="1"/>
-    <col min="7" max="7" width="25.54296875" customWidth="1"/>
-    <col min="8" max="8" width="37.54296875" customWidth="1"/>
+    <col min="1" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1"/>
+    <col min="8" max="8" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3219,7 +3228,7 @@
     <row r="2" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
@@ -3257,10 +3266,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="4"/>
@@ -3272,7 +3281,7 @@
     <row r="6" spans="1:8">
       <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -3320,7 +3329,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="29">
+    <row r="10" spans="1:8" ht="30">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
         <v>10</v>
@@ -3334,7 +3343,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="29">
+    <row r="11" spans="1:8" ht="30">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>12</v>
@@ -3351,10 +3360,10 @@
     <row r="12" spans="1:8">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -3374,60 +3383,60 @@
     </row>
     <row r="14" spans="1:8" ht="31.5" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="36.75" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.5" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3442,22 +3451,22 @@
     </row>
     <row r="18" spans="1:8" ht="28.5" customHeight="1">
       <c r="A18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3474,11 +3483,11 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3498,11 +3507,11 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3522,11 +3531,11 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3723,21 +3732,21 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="60.81640625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="39.36328125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="21" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="21"/>
+    <col min="1" max="1" width="60.85546875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" ht="47.5" customHeight="1">
+    <row r="3" spans="1:5" ht="47.45" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3751,40 +3760,40 @@
     <row r="10" spans="1:5" customFormat="1"/>
     <row r="11" spans="1:5" customFormat="1" ht="18.75" customHeight="1">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
         <v>110</v>
-      </c>
-      <c r="C11" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:5" customFormat="1" ht="18.75" customHeight="1"/>
     <row r="13" spans="1:5" customFormat="1">
       <c r="B13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:5" customFormat="1"/>
     <row r="15" spans="1:5" customFormat="1" ht="14.25" customHeight="1">
       <c r="B15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" t="s">
         <v>113</v>
-      </c>
-      <c r="C15" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:5" customFormat="1"/>
     <row r="17" spans="2:3" customFormat="1">
       <c r="B17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3796,353 +3805,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
-    <col min="2" max="2" width="39.7265625" customWidth="1"/>
-    <col min="3" max="3" width="48.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="23.1796875" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="29.1796875" customWidth="1"/>
-    <col min="2" max="2" width="52" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="B8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A10:A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="66.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.81640625" customWidth="1"/>
-    <col min="3" max="3" width="42.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="15"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="12"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="12"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="12"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="12"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="12"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="12"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="12"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="31.1796875" customWidth="1"/>
-    <col min="3" max="3" width="41.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.453125" customWidth="1"/>
-    <col min="7" max="7" width="25.54296875" customWidth="1"/>
-    <col min="8" max="8" width="37.54296875" customWidth="1"/>
+    <col min="1" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1"/>
+    <col min="8" max="8" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4164,7 +3839,7 @@
     <row r="2" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
@@ -4175,7 +3850,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="4"/>
@@ -4194,15 +3869,15 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="30">
       <c r="A5" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -4222,13 +3897,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -4248,13 +3923,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -4284,11 +3959,11 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -4308,11 +3983,11 @@
     </row>
     <row r="14" spans="1:8" ht="31.5" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -4605,200 +4280,545 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A10:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="66.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="15"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="12"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="12"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="12"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="12"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="12"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="12"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="12"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" customWidth="1"/>
-    <col min="3" max="3" width="53.81640625" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="53.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
         <v>74</v>
-      </c>
-      <c r="B3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" t="s">
         <v>100</v>
-      </c>
-      <c r="C15" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" t="s">
         <v>102</v>
-      </c>
-      <c r="C18" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s">
         <v>105</v>
-      </c>
-      <c r="C22" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="33.75" customHeight="1"/>
     <row r="25" spans="1:3" ht="18.75" customHeight="1">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" t="s">
         <v>110</v>
-      </c>
-      <c r="C25" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75" customHeight="1"/>
     <row r="27" spans="1:3">
       <c r="B27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" t="s">
         <v>113</v>
-      </c>
-      <c r="C29" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" t="s">
         <v>183</v>
-      </c>
-      <c r="C35" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" t="s">
         <v>185</v>
-      </c>
-      <c r="C39" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>187</v>
+      </c>
+      <c r="B43" t="s">
         <v>188</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>189</v>
-      </c>
-      <c r="C43" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="B45" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45" t="s">
         <v>191</v>
-      </c>
-      <c r="C45" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="C46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="B47" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" t="s">
         <v>194</v>
-      </c>
-      <c r="C47" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>195</v>
+      </c>
+      <c r="C50" t="s">
         <v>196</v>
-      </c>
-      <c r="C50" t="s">
-        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4815,160 +4835,160 @@
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" customWidth="1"/>
-    <col min="3" max="3" width="55.1796875" customWidth="1"/>
-    <col min="5" max="5" width="47.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="55.140625" customWidth="1"/>
+    <col min="5" max="5" width="47.140625" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" t="s">
         <v>154</v>
-      </c>
-      <c r="E2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="17"/>
       <c r="E4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" t="s">
         <v>148</v>
       </c>
-      <c r="C11" t="s">
-        <v>149</v>
-      </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="E12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" t="s">
         <v>152</v>
       </c>
-      <c r="B15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" t="s">
-        <v>153</v>
-      </c>
       <c r="E15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="E16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4976,54 +4996,54 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="E19" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="C20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="B22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="B23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" t="s">
         <v>170</v>
-      </c>
-      <c r="C23" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="B24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="B25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" t="s">
         <v>174</v>
-      </c>
-      <c r="C25" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -5040,44 +5060,44 @@
       <selection activeCell="A6" sqref="A6:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.7265625" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
